--- a/приказы/Т-6 отпуск по уходу за ребенком.xlsx
+++ b/приказы/Т-6 отпуск по уходу за ребенком.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Работа\01.21\КЦСОН-Сургут\KCSON_Orders\приказы\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECD054-A54D-439C-9E64-E1BDBE105C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -162,14 +168,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="0&quot;  &quot;"/>
     <numFmt numFmtId="166" formatCode="0&quot;-ЛС     &quot;"/>
     <numFmt numFmtId="167" formatCode="0&quot;      &quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -463,6 +469,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -472,56 +523,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,6 +535,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -575,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,9 +621,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,6 +673,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -816,18 +866,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
@@ -839,27 +889,27 @@
     <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="11.1" customHeight="1">
-      <c r="F1" s="27" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1">
-      <c r="F2" s="28" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="6" customHeight="1"/>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
@@ -867,14 +917,14 @@
         <v>301005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="75.95" customHeight="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
         <v>5</v>
@@ -883,17 +933,17 @@
         <v>74730197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -901,40 +951,40 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="E9" s="31" t="s">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1">
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="39">
         <v>229</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="14.1" customHeight="1">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -942,93 +992,93 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="14">
         <v>1115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="11.1" customHeight="1"/>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1037,8 +1087,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="3" customHeight="1"/>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="25" spans="1:8" s="15" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
@@ -1047,43 +1097,43 @@
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="3.95" customHeight="1"/>
-    <row r="28" spans="1:8" s="15" customFormat="1" ht="11.1" customHeight="1">
+    <row r="27" spans="1:8" s="15" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="15" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" ht="6" customHeight="1"/>
-    <row r="30" spans="1:8" s="15" customFormat="1" ht="12.95" customHeight="1">
+    <row r="29" spans="1:8" s="15" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" s="15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
-      <c r="B31" s="30" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.95" customHeight="1">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
@@ -1105,13 +1155,13 @@
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="12.95" customHeight="1">
+    <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
@@ -1122,7 +1172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>25</v>
       </c>
@@ -1133,80 +1183,80 @@
       <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="38"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="38" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-    </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A39" s="46" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="41" spans="1:8" s="19" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A41" s="41" t="s">
+      <c r="F39" s="32"/>
+    </row>
+    <row r="41" spans="1:8" s="19" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" s="24" customFormat="1" ht="11.1" customHeight="1">
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="1:8" s="24" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1">
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
         <v>44</v>
       </c>
@@ -1217,45 +1267,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1">
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/приказы/Т-6 отпуск по уходу за ребенком.xlsx
+++ b/приказы/Т-6 отпуск по уходу за ребенком.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Работа\01.21\КЦСОН-Сургут\KCSON_Orders\приказы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECD054-A54D-439C-9E64-E1BDBE105C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B797925-0CB6-4E17-893D-8CF53DB76291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -481,53 +481,53 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,18 +890,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -918,13 +918,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
         <v>5</v>
@@ -934,14 +934,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
@@ -952,27 +952,27 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>229</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="10" t="s">
@@ -993,85 +993,85 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="14">
         <v>1115</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1097,8 +1097,8 @@
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1112,26 +1112,26 @@
       <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
@@ -1155,10 +1155,10 @@
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1183,23 +1183,23 @@
       <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="17"/>
     </row>
     <row r="38" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" s="19" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
@@ -1212,37 +1212,37 @@
       <c r="D39" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="41" spans="1:8" s="19" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" s="24" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="9" t="s">
@@ -1251,10 +1251,10 @@
       <c r="F44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="31"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
@@ -1271,41 +1271,41 @@
       <c r="A46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
